--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90269.22150904873</v>
+        <v>16180583.94117326</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90269.22150904873</v>
+        <v>16180583.94117326</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7240.95259535764</v>
+        <v>801966.9210504155</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7240.95259535764</v>
+        <v>801966.9210504155</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189426223.532335</v>
+        <v>48840309.05042128</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9683.019945731392</v>
+        <v>1148244.423100536</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18207.30711787339</v>
+        <v>2120542.511444862</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26788.0075182394</v>
+        <v>3092840.599789193</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35554.31490259179</v>
+        <v>4066806.307915532</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44274.67031954748</v>
+        <v>5040452.516296106</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53005.28455691264</v>
+        <v>6014098.724676773</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61732.4704688628</v>
+        <v>6987744.933057439</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70357.30313327514</v>
+        <v>7961391.141438095</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79113.3226407326</v>
+        <v>8891287.395509191</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87673.31063085781</v>
+        <v>9869673.780624187</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96220.01325479298</v>
+        <v>10841692.51619167</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104592.1712884371</v>
+        <v>11812609.40056821</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112949.0538771536</v>
+        <v>12783756.76333569</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121682.8504579943</v>
+        <v>13692150.33445422</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130905.5785203574</v>
+        <v>14548269.61047978</v>
       </c>
     </row>
   </sheetData>
@@ -27043,22 +27043,22 @@
         <v>-1.631544925039634e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>373.9999999999933</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>49.00000000017172</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>360.9999999998279</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>59.99999999999994</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
